--- a/portfolioAB/Office/Tiempo Entre Fechas.xlsx
+++ b/portfolioAB/Office/Tiempo Entre Fechas.xlsx
@@ -733,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -781,7 +781,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1293,7 +1292,7 @@
   <dimension ref="A1:DU1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4:AU26"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,22 +1348,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
-      <c r="F1" s="57" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="F1" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="I1" s="46" t="s">
+      <c r="G1" s="57"/>
+      <c r="I1" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
       <c r="BM1" s="14" t="s">
         <v>40</v>
       </c>
@@ -1373,11 +1372,11 @@
       </c>
     </row>
     <row r="2" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-      <c r="F2" s="48" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="F2" s="47" t="s">
         <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1415,22 +1414,22 @@
       <c r="DU2" s="1"/>
     </row>
     <row r="3" spans="1:125" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="44" t="s">
+      <c r="A3" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="50" t="str">
+      <c r="G3" s="49" t="str">
         <f>F3</f>
         <v>Días Totales</v>
       </c>
@@ -1740,22 +1739,22 @@
       </c>
     </row>
     <row r="4" spans="1:125" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
-        <v>43050</v>
-      </c>
-      <c r="B4" s="42">
-        <v>0</v>
-      </c>
-      <c r="C4" s="41">
-        <v>45240</v>
-      </c>
-      <c r="D4" s="42">
+      <c r="A4" s="39">
+        <v>37125</v>
+      </c>
+      <c r="B4" s="41">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39">
+        <v>40343</v>
+      </c>
+      <c r="D4" s="41">
         <v>0</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <f>IF(EXACT(G4,"Segundos Totales"),BF4,IF(EXACT(G4,"Minutos Totales"),BE4,IF(EXACT(G4,"Horas Totales"),BD4,IF(EXACT(G4,"Días Totales"),BC4,IF(EXACT(G4,"Meses Totales"),BB4,IF(EXACT(G4,"Años Totales"),BA4,"Opción No Válida"))))))</f>
-        <v>2190</v>
+        <v>3218</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>G3</f>
@@ -1764,15 +1763,15 @@
       <c r="H4" s="2"/>
       <c r="I4" s="8">
         <f>YEAR(A4)</f>
-        <v>2017</v>
+        <v>2001</v>
       </c>
       <c r="J4" s="8">
         <f>MONTH(A4)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K4" s="8">
         <f>DAY(A4)</f>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L4" s="8">
         <f>HOUR(B4)</f>
@@ -1789,15 +1788,15 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8">
         <f>YEAR(C4)</f>
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="Q4" s="8">
         <f>MONTH(C4)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R4" s="8">
         <f>DAY(C4)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S4" s="8">
         <f>HOUR(D4)</f>
@@ -1814,19 +1813,19 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8">
         <f>P4-I4</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X4" s="8">
         <f t="shared" ref="X4" si="0">Q4-J4</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y4" s="8">
         <f>R4-K4</f>
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="Z4" s="8">
         <f>CR4-CA4</f>
-        <v>-1</v>
+        <v>-69</v>
       </c>
       <c r="AA4" s="8">
         <f>S4-L4</f>
@@ -1877,7 +1876,7 @@
       </c>
       <c r="AO4" s="8">
         <f>GESTEP(X4,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="8">
         <f>GESTEP(Z4,0)</f>
@@ -1898,11 +1897,11 @@
       <c r="AT4" s="8"/>
       <c r="AU4" s="11">
         <f>W4-IF(AP4,0,1)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV4" s="12">
         <f>IF(AP4,Z4,365+Z4)-IF(AQ4,0,1)</f>
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="AW4" s="12">
         <f>IF(AQ4,AA4,24+AA4)-IF(AR4,0,1)</f>
@@ -1919,36 +1918,36 @@
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8">
         <f>BC4/365</f>
-        <v>6</v>
+        <v>8.8164383561643831</v>
       </c>
       <c r="BB4" s="8">
         <f>BC4/(365/12)</f>
-        <v>72</v>
+        <v>105.7972602739726</v>
       </c>
       <c r="BC4" s="8">
         <f>BD4/24</f>
-        <v>2190</v>
+        <v>3218</v>
       </c>
       <c r="BD4" s="8">
         <f>BE4/60</f>
-        <v>52560</v>
+        <v>77232</v>
       </c>
       <c r="BE4" s="8">
         <f>BF4/60</f>
-        <v>3153600</v>
+        <v>4633920</v>
       </c>
       <c r="BF4" s="8">
         <f>(AY4+60*AX4+60*60*AW4+60*60*24*(AV4+BH4)+60*60*24*365*AU4)*AL4</f>
-        <v>189216000</v>
+        <v>278035200</v>
       </c>
       <c r="BG4" s="8"/>
       <c r="BH4" s="14">
         <f>INT(W4/4)+BL4*BY4+CC4*CP4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI4" s="14">
         <f>Y4-BH4</f>
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="BJ4" s="14"/>
       <c r="BK4" s="8"/>
@@ -1986,7 +1985,7 @@
       </c>
       <c r="BT4" s="8">
         <f t="shared" ref="BT4:BT26" si="8">IF(EXACT(J4,DB4),DO4,0)</f>
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="BU4" s="8">
         <f t="shared" ref="BU4:BU26" si="9">IF(EXACT(J4,DC4),DP4,0)</f>
@@ -1998,7 +1997,7 @@
       </c>
       <c r="BW4" s="8">
         <f t="shared" ref="BW4:BW26" si="11">IF(EXACT(J4,DE4),DR4,0)</f>
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="8">
         <f t="shared" ref="BX4:BX26" si="12">IF(EXACT(J4,DF4),DS4,0)</f>
@@ -2010,11 +2009,11 @@
       </c>
       <c r="BZ4" s="8">
         <f>SUM(BM4:BX4)+BY4*BL4</f>
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="CA4" s="8">
         <f>BZ4+K4</f>
-        <v>315</v>
+        <v>234</v>
       </c>
       <c r="CB4" s="8"/>
       <c r="CC4" s="8">
@@ -2043,7 +2042,7 @@
       </c>
       <c r="CI4" s="8">
         <f t="shared" ref="CI4:CI26" si="18">IF(EXACT(Q4,CZ4),DM4,0)</f>
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="CJ4" s="8">
         <f t="shared" ref="CJ4:CJ26" si="19">IF(EXACT(Q4,DA4),DN4,0)</f>
@@ -2063,7 +2062,7 @@
       </c>
       <c r="CN4" s="8">
         <f t="shared" ref="CN4:CN26" si="23">IF(EXACT(Q4,DE4),DR4,0)</f>
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="CO4" s="8">
         <f t="shared" ref="CO4:CO26" si="24">IF(EXACT(Q4,DF4),DS4,0)</f>
@@ -2075,11 +2074,11 @@
       </c>
       <c r="CQ4" s="8">
         <f t="shared" ref="CQ4" si="25">SUM(CD4:CO4)+CP4*CC4</f>
-        <v>304</v>
+        <v>151</v>
       </c>
       <c r="CR4" s="8">
         <f>CQ4+R4</f>
-        <v>314</v>
+        <v>165</v>
       </c>
       <c r="CS4" s="8"/>
       <c r="CT4" s="8"/>
@@ -2185,8 +2184,8 @@
       <c r="A5" s="39">
         <v>37126</v>
       </c>
-      <c r="B5" s="40">
-        <v>0.591863425925926</v>
+      <c r="B5" s="41">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C5" s="39">
         <v>40344</v>
@@ -2197,7 +2196,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="18">
         <f t="shared" ref="F5:F20" si="28">IF(EXACT(G5,"Segundos Totales"),BF5,IF(EXACT(G5,"Minutos Totales"),BE5,IF(EXACT(G5,"Horas Totales"),BD5,IF(EXACT(G5,"Días Totales"),BC5,IF(EXACT(G5,"Meses Totales"),BB5,IF(EXACT(G5,"Años Totales"),BA5,"Opción No Válida"))))))</f>
-        <v>3217.5692824074072</v>
+        <v>3218.1194791666662</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" ref="G5:G20" si="29">G4</f>
@@ -2218,15 +2217,15 @@
       </c>
       <c r="L5" s="8">
         <f t="shared" ref="L5:L20" si="33">HOUR(B5)</f>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" ref="M5:M20" si="34">MINUTE(B5)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" ref="N5:N20" si="35">SECOND(B5)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="8">
@@ -2272,15 +2271,15 @@
       </c>
       <c r="AA5" s="8">
         <f t="shared" ref="AA5:AA20" si="46">S5-L5</f>
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="AB5" s="8">
         <f t="shared" ref="AB5:AB20" si="47">T5-M5</f>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AC5" s="8">
         <f t="shared" ref="AC5:AC20" si="48">U5-N5</f>
-        <v>-14</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="8"/>
       <c r="AE5" s="9">
@@ -2293,7 +2292,7 @@
       </c>
       <c r="AG5" s="9">
         <f t="shared" ref="AG5:AG20" si="51">IF(AQ5,100,IF(EXACT(AA5,0),0,-100))</f>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AH5" s="9">
         <f t="shared" ref="AH5:AH20" si="52">IF(AR5,10,IF(EXACT(AB5,0),0,-10))</f>
@@ -2301,12 +2300,12 @@
       </c>
       <c r="AI5" s="9">
         <f t="shared" ref="AI5:AI20" si="53">IF(AS5,1,IF(EXACT(AC5,0),0,-1))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9">
         <f t="shared" ref="AK5:AK20" si="54">SUM(AE5:AI5)</f>
-        <v>8909</v>
+        <v>9111</v>
       </c>
       <c r="AL5" s="10">
         <f t="shared" ref="AL5:AL26" si="55">IF(GESTEP(AK5,0),1,"INGRESO INVÁLIDO")</f>
@@ -2327,7 +2326,7 @@
       </c>
       <c r="AQ5" s="8">
         <f t="shared" ref="AQ5:AQ20" si="59">GESTEP(AA5,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5" s="8">
         <f t="shared" ref="AR5:AR20" si="60">GESTEP(AB5,0)</f>
@@ -2335,7 +2334,7 @@
       </c>
       <c r="AS5" s="8">
         <f t="shared" ref="AS5:AS20" si="61">GESTEP(AC5,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="8"/>
       <c r="AU5" s="11">
@@ -2344,44 +2343,44 @@
       </c>
       <c r="AV5" s="12">
         <f t="shared" ref="AV5:AV20" si="63">IF(AP5,Z5,365+Z5)-IF(AQ5,0,1)</f>
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AW5" s="12">
         <f t="shared" ref="AW5:AW20" si="64">IF(AQ5,AA5,24+AA5)-IF(AR5,0,1)</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ref="AX5:AX20" si="65">IF(AR5,AB5,60+AB5)-IF(AS5,0,1)</f>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AY5" s="13">
         <f t="shared" ref="AY5:AY20" si="66">IF(AS5,AC5,60+AC5)</f>
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="AZ5" s="8"/>
       <c r="BA5" s="8">
         <f t="shared" ref="BA5:BA20" si="67">BC5/365</f>
-        <v>8.8152583079654985</v>
+        <v>8.81676569634703</v>
       </c>
       <c r="BB5" s="8">
         <f t="shared" ref="BB5:BB26" si="68">BC5/(365/12)</f>
-        <v>105.78309969558599</v>
+        <v>105.80118835616436</v>
       </c>
       <c r="BC5" s="8">
         <f t="shared" ref="BC5:BC26" si="69">BD5/24</f>
-        <v>3217.5692824074072</v>
+        <v>3218.1194791666662</v>
       </c>
       <c r="BD5" s="8">
         <f t="shared" ref="BD5:BE5" si="70">BE5/60</f>
-        <v>77221.662777777776</v>
+        <v>77234.867499999993</v>
       </c>
       <c r="BE5" s="8">
         <f t="shared" si="70"/>
-        <v>4633299.7666666666</v>
+        <v>4634092.05</v>
       </c>
       <c r="BF5" s="8">
         <f t="shared" ref="BF5:BF20" si="71">(AY5+60*AX5+60*60*AW5+60*60*24*(AV5+BH5)+60*60*24*365*AU5)*AL5</f>
-        <v>277997986</v>
+        <v>278045523</v>
       </c>
       <c r="BG5" s="8"/>
       <c r="BH5" s="14">
@@ -2627,8 +2626,8 @@
       <c r="A6" s="39">
         <v>37127</v>
       </c>
-      <c r="B6" s="40">
-        <v>0.63353009259259296</v>
+      <c r="B6" s="41">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C6" s="39">
         <v>40345</v>
@@ -2639,7 +2638,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="18">
         <f t="shared" si="28"/>
-        <v>3217.5692824074072</v>
+        <v>3218.1194791666662</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="29"/>
@@ -2660,15 +2659,15 @@
       </c>
       <c r="L6" s="8">
         <f t="shared" si="33"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" si="34"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="35"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8">
@@ -2714,15 +2713,15 @@
       </c>
       <c r="AA6" s="8">
         <f t="shared" si="46"/>
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="8">
         <f t="shared" si="47"/>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AC6" s="8">
         <f t="shared" si="48"/>
-        <v>-14</v>
+        <v>3</v>
       </c>
       <c r="AD6" s="8"/>
       <c r="AE6" s="9">
@@ -2735,7 +2734,7 @@
       </c>
       <c r="AG6" s="9">
         <f t="shared" si="51"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AH6" s="9">
         <f t="shared" si="52"/>
@@ -2743,12 +2742,12 @@
       </c>
       <c r="AI6" s="9">
         <f t="shared" si="53"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9">
         <f t="shared" si="54"/>
-        <v>8909</v>
+        <v>9111</v>
       </c>
       <c r="AL6" s="10">
         <f t="shared" si="55"/>
@@ -2769,7 +2768,7 @@
       </c>
       <c r="AQ6" s="8">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6" s="8">
         <f t="shared" si="60"/>
@@ -2777,7 +2776,7 @@
       </c>
       <c r="AS6" s="8">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="8"/>
       <c r="AU6" s="11">
@@ -2786,44 +2785,44 @@
       </c>
       <c r="AV6" s="12">
         <f t="shared" si="63"/>
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AW6" s="12">
         <f t="shared" si="64"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="12">
         <f t="shared" si="65"/>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AY6" s="13">
         <f t="shared" si="66"/>
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="AZ6" s="8"/>
       <c r="BA6" s="8">
         <f t="shared" si="67"/>
-        <v>8.8152583079654985</v>
+        <v>8.81676569634703</v>
       </c>
       <c r="BB6" s="8">
         <f t="shared" si="68"/>
-        <v>105.78309969558599</v>
+        <v>105.80118835616436</v>
       </c>
       <c r="BC6" s="8">
         <f t="shared" si="69"/>
-        <v>3217.5692824074072</v>
+        <v>3218.1194791666662</v>
       </c>
       <c r="BD6" s="8">
         <f t="shared" ref="BD6:BE6" si="106">BE6/60</f>
-        <v>77221.662777777776</v>
+        <v>77234.867499999993</v>
       </c>
       <c r="BE6" s="8">
         <f t="shared" si="106"/>
-        <v>4633299.7666666666</v>
+        <v>4634092.05</v>
       </c>
       <c r="BF6" s="8">
         <f t="shared" si="71"/>
-        <v>277997986</v>
+        <v>278045523</v>
       </c>
       <c r="BG6" s="8"/>
       <c r="BH6" s="14">
@@ -3069,8 +3068,8 @@
       <c r="A7" s="39">
         <v>37128</v>
       </c>
-      <c r="B7" s="40">
-        <v>0.67519675925925904</v>
+      <c r="B7" s="41">
+        <v>0.125</v>
       </c>
       <c r="C7" s="39">
         <v>40346</v>
@@ -3081,7 +3080,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="18">
         <f t="shared" si="28"/>
-        <v>3217.5692824074072</v>
+        <v>3218.1194791666662</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="29"/>
@@ -3102,15 +3101,15 @@
       </c>
       <c r="L7" s="8">
         <f t="shared" si="33"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" si="34"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="35"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8">
@@ -3156,15 +3155,15 @@
       </c>
       <c r="AA7" s="8">
         <f t="shared" si="46"/>
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="8">
         <f t="shared" si="47"/>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AC7" s="8">
         <f t="shared" si="48"/>
-        <v>-14</v>
+        <v>3</v>
       </c>
       <c r="AD7" s="8"/>
       <c r="AE7" s="9">
@@ -3177,7 +3176,7 @@
       </c>
       <c r="AG7" s="9">
         <f t="shared" si="51"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AH7" s="9">
         <f t="shared" si="52"/>
@@ -3185,12 +3184,12 @@
       </c>
       <c r="AI7" s="9">
         <f t="shared" si="53"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9">
         <f t="shared" si="54"/>
-        <v>8909</v>
+        <v>9111</v>
       </c>
       <c r="AL7" s="10">
         <f t="shared" si="55"/>
@@ -3211,7 +3210,7 @@
       </c>
       <c r="AQ7" s="8">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7" s="8">
         <f t="shared" si="60"/>
@@ -3219,7 +3218,7 @@
       </c>
       <c r="AS7" s="8">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="8"/>
       <c r="AU7" s="11">
@@ -3228,44 +3227,44 @@
       </c>
       <c r="AV7" s="12">
         <f t="shared" si="63"/>
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AW7" s="12">
         <f t="shared" si="64"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="12">
         <f t="shared" si="65"/>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AY7" s="13">
         <f t="shared" si="66"/>
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="AZ7" s="8"/>
       <c r="BA7" s="8">
         <f t="shared" si="67"/>
-        <v>8.8152583079654985</v>
+        <v>8.81676569634703</v>
       </c>
       <c r="BB7" s="8">
         <f t="shared" si="68"/>
-        <v>105.78309969558599</v>
+        <v>105.80118835616436</v>
       </c>
       <c r="BC7" s="8">
         <f t="shared" si="69"/>
-        <v>3217.5692824074072</v>
+        <v>3218.1194791666662</v>
       </c>
       <c r="BD7" s="8">
         <f t="shared" ref="BD7:BE7" si="107">BE7/60</f>
-        <v>77221.662777777776</v>
+        <v>77234.867499999993</v>
       </c>
       <c r="BE7" s="8">
         <f t="shared" si="107"/>
-        <v>4633299.7666666666</v>
+        <v>4634092.05</v>
       </c>
       <c r="BF7" s="8">
         <f t="shared" si="71"/>
-        <v>277997986</v>
+        <v>278045523</v>
       </c>
       <c r="BG7" s="8"/>
       <c r="BH7" s="14">
@@ -11905,132 +11904,132 @@
         <v>334</v>
       </c>
     </row>
-    <row r="1048576" spans="1:123" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1048576" s="59" t="s">
+    <row r="1048576" spans="1:123" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1048576" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B1048576" s="60"/>
-      <c r="C1048576" s="60"/>
-      <c r="D1048576" s="60"/>
-      <c r="E1048576" s="60"/>
-      <c r="F1048576" s="60"/>
-      <c r="G1048576" s="60"/>
-      <c r="H1048576" s="60"/>
-      <c r="I1048576" s="60"/>
-      <c r="J1048576" s="60"/>
-      <c r="K1048576" s="60"/>
-      <c r="L1048576" s="60"/>
-      <c r="M1048576" s="60"/>
-      <c r="N1048576" s="60"/>
-      <c r="O1048576" s="60"/>
-      <c r="P1048576" s="60"/>
-      <c r="Q1048576" s="60"/>
-      <c r="R1048576" s="60"/>
-      <c r="S1048576" s="60"/>
-      <c r="T1048576" s="60"/>
-      <c r="U1048576" s="60"/>
-      <c r="V1048576" s="60"/>
-      <c r="W1048576" s="60"/>
-      <c r="X1048576" s="60"/>
-      <c r="Y1048576" s="60"/>
-      <c r="Z1048576" s="60"/>
-      <c r="AA1048576" s="60"/>
-      <c r="AB1048576" s="60"/>
-      <c r="AC1048576" s="60"/>
-      <c r="AD1048576" s="60"/>
-      <c r="AE1048576" s="60"/>
-      <c r="AF1048576" s="60"/>
-      <c r="AG1048576" s="60"/>
-      <c r="AH1048576" s="60"/>
-      <c r="AI1048576" s="60"/>
-      <c r="AJ1048576" s="60"/>
-      <c r="AK1048576" s="60"/>
-      <c r="AL1048576" s="60"/>
-      <c r="AM1048576" s="60"/>
-      <c r="AN1048576" s="60"/>
-      <c r="AO1048576" s="60"/>
-      <c r="AP1048576" s="60"/>
-      <c r="AQ1048576" s="60"/>
-      <c r="AR1048576" s="60"/>
-      <c r="AS1048576" s="60"/>
-      <c r="AT1048576" s="60"/>
-      <c r="AU1048576" s="60"/>
-      <c r="AV1048576" s="60"/>
-      <c r="AW1048576" s="60"/>
-      <c r="AX1048576" s="60"/>
-      <c r="AY1048576" s="60"/>
-      <c r="AZ1048576" s="60"/>
-      <c r="BA1048576" s="60"/>
-      <c r="BB1048576" s="60"/>
-      <c r="BC1048576" s="60"/>
-      <c r="BD1048576" s="60"/>
-      <c r="BE1048576" s="60"/>
-      <c r="BF1048576" s="60"/>
-      <c r="BG1048576" s="60"/>
-      <c r="BH1048576" s="60"/>
-      <c r="BI1048576" s="60"/>
-      <c r="BJ1048576" s="60"/>
-      <c r="BK1048576" s="60"/>
-      <c r="BL1048576" s="60"/>
-      <c r="BM1048576" s="60"/>
-      <c r="BN1048576" s="60"/>
-      <c r="BO1048576" s="60"/>
-      <c r="BP1048576" s="60"/>
-      <c r="BQ1048576" s="60"/>
-      <c r="BR1048576" s="60"/>
-      <c r="BS1048576" s="60"/>
-      <c r="BT1048576" s="60"/>
-      <c r="BU1048576" s="60"/>
-      <c r="BV1048576" s="60"/>
-      <c r="BW1048576" s="60"/>
-      <c r="BX1048576" s="60"/>
-      <c r="BY1048576" s="60"/>
-      <c r="BZ1048576" s="60"/>
-      <c r="CA1048576" s="60"/>
-      <c r="CB1048576" s="60"/>
-      <c r="CC1048576" s="60"/>
-      <c r="CD1048576" s="60"/>
-      <c r="CE1048576" s="60"/>
-      <c r="CF1048576" s="60"/>
-      <c r="CG1048576" s="60"/>
-      <c r="CH1048576" s="60"/>
-      <c r="CI1048576" s="60"/>
-      <c r="CJ1048576" s="60"/>
-      <c r="CK1048576" s="60"/>
-      <c r="CL1048576" s="60"/>
-      <c r="CM1048576" s="60"/>
-      <c r="CN1048576" s="60"/>
-      <c r="CO1048576" s="60"/>
-      <c r="CP1048576" s="60"/>
-      <c r="CQ1048576" s="60"/>
-      <c r="CR1048576" s="60"/>
-      <c r="CS1048576" s="60"/>
-      <c r="CT1048576" s="60"/>
-      <c r="CU1048576" s="60"/>
-      <c r="CV1048576" s="60"/>
-      <c r="CW1048576" s="60"/>
-      <c r="CX1048576" s="60"/>
-      <c r="CY1048576" s="60"/>
-      <c r="CZ1048576" s="60"/>
-      <c r="DA1048576" s="60"/>
-      <c r="DB1048576" s="60"/>
-      <c r="DC1048576" s="60"/>
-      <c r="DD1048576" s="60"/>
-      <c r="DE1048576" s="60"/>
-      <c r="DF1048576" s="60"/>
-      <c r="DG1048576" s="60"/>
-      <c r="DH1048576" s="60"/>
-      <c r="DI1048576" s="60"/>
-      <c r="DJ1048576" s="60"/>
-      <c r="DK1048576" s="60"/>
-      <c r="DL1048576" s="60"/>
-      <c r="DM1048576" s="60"/>
-      <c r="DN1048576" s="60"/>
-      <c r="DO1048576" s="60"/>
-      <c r="DP1048576" s="60"/>
-      <c r="DQ1048576" s="60"/>
-      <c r="DR1048576" s="60"/>
-      <c r="DS1048576" s="60"/>
+      <c r="B1048576" s="59"/>
+      <c r="C1048576" s="59"/>
+      <c r="D1048576" s="59"/>
+      <c r="E1048576" s="59"/>
+      <c r="F1048576" s="59"/>
+      <c r="G1048576" s="59"/>
+      <c r="H1048576" s="59"/>
+      <c r="I1048576" s="59"/>
+      <c r="J1048576" s="59"/>
+      <c r="K1048576" s="59"/>
+      <c r="L1048576" s="59"/>
+      <c r="M1048576" s="59"/>
+      <c r="N1048576" s="59"/>
+      <c r="O1048576" s="59"/>
+      <c r="P1048576" s="59"/>
+      <c r="Q1048576" s="59"/>
+      <c r="R1048576" s="59"/>
+      <c r="S1048576" s="59"/>
+      <c r="T1048576" s="59"/>
+      <c r="U1048576" s="59"/>
+      <c r="V1048576" s="59"/>
+      <c r="W1048576" s="59"/>
+      <c r="X1048576" s="59"/>
+      <c r="Y1048576" s="59"/>
+      <c r="Z1048576" s="59"/>
+      <c r="AA1048576" s="59"/>
+      <c r="AB1048576" s="59"/>
+      <c r="AC1048576" s="59"/>
+      <c r="AD1048576" s="59"/>
+      <c r="AE1048576" s="59"/>
+      <c r="AF1048576" s="59"/>
+      <c r="AG1048576" s="59"/>
+      <c r="AH1048576" s="59"/>
+      <c r="AI1048576" s="59"/>
+      <c r="AJ1048576" s="59"/>
+      <c r="AK1048576" s="59"/>
+      <c r="AL1048576" s="59"/>
+      <c r="AM1048576" s="59"/>
+      <c r="AN1048576" s="59"/>
+      <c r="AO1048576" s="59"/>
+      <c r="AP1048576" s="59"/>
+      <c r="AQ1048576" s="59"/>
+      <c r="AR1048576" s="59"/>
+      <c r="AS1048576" s="59"/>
+      <c r="AT1048576" s="59"/>
+      <c r="AU1048576" s="59"/>
+      <c r="AV1048576" s="59"/>
+      <c r="AW1048576" s="59"/>
+      <c r="AX1048576" s="59"/>
+      <c r="AY1048576" s="59"/>
+      <c r="AZ1048576" s="59"/>
+      <c r="BA1048576" s="59"/>
+      <c r="BB1048576" s="59"/>
+      <c r="BC1048576" s="59"/>
+      <c r="BD1048576" s="59"/>
+      <c r="BE1048576" s="59"/>
+      <c r="BF1048576" s="59"/>
+      <c r="BG1048576" s="59"/>
+      <c r="BH1048576" s="59"/>
+      <c r="BI1048576" s="59"/>
+      <c r="BJ1048576" s="59"/>
+      <c r="BK1048576" s="59"/>
+      <c r="BL1048576" s="59"/>
+      <c r="BM1048576" s="59"/>
+      <c r="BN1048576" s="59"/>
+      <c r="BO1048576" s="59"/>
+      <c r="BP1048576" s="59"/>
+      <c r="BQ1048576" s="59"/>
+      <c r="BR1048576" s="59"/>
+      <c r="BS1048576" s="59"/>
+      <c r="BT1048576" s="59"/>
+      <c r="BU1048576" s="59"/>
+      <c r="BV1048576" s="59"/>
+      <c r="BW1048576" s="59"/>
+      <c r="BX1048576" s="59"/>
+      <c r="BY1048576" s="59"/>
+      <c r="BZ1048576" s="59"/>
+      <c r="CA1048576" s="59"/>
+      <c r="CB1048576" s="59"/>
+      <c r="CC1048576" s="59"/>
+      <c r="CD1048576" s="59"/>
+      <c r="CE1048576" s="59"/>
+      <c r="CF1048576" s="59"/>
+      <c r="CG1048576" s="59"/>
+      <c r="CH1048576" s="59"/>
+      <c r="CI1048576" s="59"/>
+      <c r="CJ1048576" s="59"/>
+      <c r="CK1048576" s="59"/>
+      <c r="CL1048576" s="59"/>
+      <c r="CM1048576" s="59"/>
+      <c r="CN1048576" s="59"/>
+      <c r="CO1048576" s="59"/>
+      <c r="CP1048576" s="59"/>
+      <c r="CQ1048576" s="59"/>
+      <c r="CR1048576" s="59"/>
+      <c r="CS1048576" s="59"/>
+      <c r="CT1048576" s="59"/>
+      <c r="CU1048576" s="59"/>
+      <c r="CV1048576" s="59"/>
+      <c r="CW1048576" s="59"/>
+      <c r="CX1048576" s="59"/>
+      <c r="CY1048576" s="59"/>
+      <c r="CZ1048576" s="59"/>
+      <c r="DA1048576" s="59"/>
+      <c r="DB1048576" s="59"/>
+      <c r="DC1048576" s="59"/>
+      <c r="DD1048576" s="59"/>
+      <c r="DE1048576" s="59"/>
+      <c r="DF1048576" s="59"/>
+      <c r="DG1048576" s="59"/>
+      <c r="DH1048576" s="59"/>
+      <c r="DI1048576" s="59"/>
+      <c r="DJ1048576" s="59"/>
+      <c r="DK1048576" s="59"/>
+      <c r="DL1048576" s="59"/>
+      <c r="DM1048576" s="59"/>
+      <c r="DN1048576" s="59"/>
+      <c r="DO1048576" s="59"/>
+      <c r="DP1048576" s="59"/>
+      <c r="DQ1048576" s="59"/>
+      <c r="DR1048576" s="59"/>
+      <c r="DS1048576" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
